--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H2">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I2">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J2">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>14.57524340883407</v>
+        <v>103.0466974276364</v>
       </c>
       <c r="R2">
-        <v>14.57524340883407</v>
+        <v>927.4202768487281</v>
       </c>
       <c r="S2">
-        <v>0.005569904427645537</v>
+        <v>0.03121994549198473</v>
       </c>
       <c r="T2">
-        <v>0.005569904427645537</v>
+        <v>0.03121994549198473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H3">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I3">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J3">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>85.26043593288591</v>
+        <v>121.5685263443271</v>
       </c>
       <c r="R3">
-        <v>85.26043593288591</v>
+        <v>1094.116737098944</v>
       </c>
       <c r="S3">
-        <v>0.03258213027974112</v>
+        <v>0.03683148379089062</v>
       </c>
       <c r="T3">
-        <v>0.03258213027974112</v>
+        <v>0.03683148379089062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H4">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I4">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J4">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>7.077289259140448</v>
+        <v>15.55999505094667</v>
       </c>
       <c r="R4">
-        <v>7.077289259140448</v>
+        <v>140.03995545852</v>
       </c>
       <c r="S4">
-        <v>0.002704574028336444</v>
+        <v>0.004714194724069085</v>
       </c>
       <c r="T4">
-        <v>0.002704574028336444</v>
+        <v>0.004714194724069085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H5">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I5">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J5">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>13.98510953951195</v>
+        <v>23.17568429521511</v>
       </c>
       <c r="R5">
-        <v>13.98510953951195</v>
+        <v>208.581158656936</v>
       </c>
       <c r="S5">
-        <v>0.005344385775267585</v>
+        <v>0.007021511785413248</v>
       </c>
       <c r="T5">
-        <v>0.005344385775267585</v>
+        <v>0.007021511785413249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H6">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I6">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J6">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>380.5873859569565</v>
+        <v>556.1274764630347</v>
       </c>
       <c r="R6">
-        <v>380.5873859569565</v>
+        <v>5005.147288167313</v>
       </c>
       <c r="S6">
-        <v>0.1454408208965387</v>
+        <v>0.1684893347888558</v>
       </c>
       <c r="T6">
-        <v>0.1454408208965387</v>
+        <v>0.1684893347888558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H7">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I7">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J7">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>7.498137416468198</v>
+        <v>12.90773417403022</v>
       </c>
       <c r="R7">
-        <v>7.498137416468198</v>
+        <v>116.169607566272</v>
       </c>
       <c r="S7">
-        <v>0.002865400434394648</v>
+        <v>0.003910642139902058</v>
       </c>
       <c r="T7">
-        <v>0.002865400434394648</v>
+        <v>0.003910642139902058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H8">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I8">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J8">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>47.49853190353139</v>
+        <v>235.9800179679024</v>
       </c>
       <c r="R8">
-        <v>47.49853190353139</v>
+        <v>2123.820161711122</v>
       </c>
       <c r="S8">
-        <v>0.01815148301371013</v>
+        <v>0.07149460858101828</v>
       </c>
       <c r="T8">
-        <v>0.01815148301371013</v>
+        <v>0.07149460858101828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H9">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I9">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J9">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>277.850971175728</v>
+        <v>278.3955599470951</v>
       </c>
       <c r="R9">
-        <v>277.850971175728</v>
+        <v>2505.560039523856</v>
       </c>
       <c r="S9">
-        <v>0.1061802750847575</v>
+        <v>0.08434519905756702</v>
       </c>
       <c r="T9">
-        <v>0.1061802750847575</v>
+        <v>0.08434519905756702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H10">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I10">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J10">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>23.06382406362113</v>
+        <v>35.63285387463666</v>
       </c>
       <c r="R10">
-        <v>23.06382406362113</v>
+        <v>320.69568487173</v>
       </c>
       <c r="S10">
-        <v>0.008813801057520538</v>
+        <v>0.01079564686166895</v>
       </c>
       <c r="T10">
-        <v>0.008813801057520538</v>
+        <v>0.01079564686166895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H11">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I11">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J11">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>45.57537414670367</v>
+        <v>53.07300993555711</v>
       </c>
       <c r="R11">
-        <v>45.57537414670367</v>
+        <v>477.657089420014</v>
       </c>
       <c r="S11">
-        <v>0.01741655155463597</v>
+        <v>0.01607947191560627</v>
       </c>
       <c r="T11">
-        <v>0.01741655155463597</v>
+        <v>0.01607947191560627</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H12">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I12">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J12">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>1240.277200653912</v>
+        <v>1273.548548029398</v>
       </c>
       <c r="R12">
-        <v>1240.277200653912</v>
+        <v>11461.93693226459</v>
       </c>
       <c r="S12">
-        <v>0.4739698183869063</v>
+        <v>0.3858456141090332</v>
       </c>
       <c r="T12">
-        <v>0.4739698183869063</v>
+        <v>0.3858456141090332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H13">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I13">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J13">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>24.43530507883758</v>
+        <v>29.55909717001422</v>
       </c>
       <c r="R13">
-        <v>24.43530507883758</v>
+        <v>266.031874530128</v>
       </c>
       <c r="S13">
-        <v>0.009337910190027778</v>
+        <v>0.008955487419557283</v>
       </c>
       <c r="T13">
-        <v>0.009337910190027778</v>
+        <v>0.008955487419557283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H14">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I14">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J14">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>0.1525747352606184</v>
+        <v>0.1408956631574445</v>
       </c>
       <c r="R14">
-        <v>0.1525747352606184</v>
+        <v>1.268060968417</v>
       </c>
       <c r="S14">
-        <v>5.830617504198132E-05</v>
+        <v>4.268700534455692E-05</v>
       </c>
       <c r="T14">
-        <v>5.830617504198132E-05</v>
+        <v>4.268700534455692E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H15">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I15">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J15">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>0.8925126034451309</v>
+        <v>0.1662205443351111</v>
       </c>
       <c r="R15">
-        <v>0.8925126034451309</v>
+        <v>1.495984899016</v>
       </c>
       <c r="S15">
-        <v>0.0003410721702695835</v>
+        <v>5.035965696459514E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003410721702695835</v>
+        <v>5.035965696459515E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H16">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I16">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J16">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>0.07408559190316467</v>
+        <v>0.02127516821166666</v>
       </c>
       <c r="R16">
-        <v>0.07408559190316467</v>
+        <v>0.191476513905</v>
       </c>
       <c r="S16">
-        <v>2.831168267941719E-05</v>
+        <v>6.445714501112219E-06</v>
       </c>
       <c r="T16">
-        <v>2.831168267941719E-05</v>
+        <v>6.44571450111222E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H17">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I17">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J17">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>0.1463971698948438</v>
+        <v>0.03168809374211112</v>
       </c>
       <c r="R17">
-        <v>0.1463971698948438</v>
+        <v>0.285192843679</v>
       </c>
       <c r="S17">
-        <v>5.594542896606726E-05</v>
+        <v>9.600507188193372E-06</v>
       </c>
       <c r="T17">
-        <v>5.594542896606726E-05</v>
+        <v>9.600507188193375E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H18">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I18">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J18">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>3.984017146548533</v>
+        <v>0.7603926331686667</v>
       </c>
       <c r="R18">
-        <v>3.984017146548533</v>
+        <v>6.843533698518</v>
       </c>
       <c r="S18">
-        <v>0.001522485362469258</v>
+        <v>0.0002303753264553024</v>
       </c>
       <c r="T18">
-        <v>0.001522485362469258</v>
+        <v>0.0002303753264553024</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H19">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I19">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J19">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>0.07849106180772095</v>
+        <v>0.01764873413422222</v>
       </c>
       <c r="R19">
-        <v>0.07849106180772095</v>
+        <v>0.158838607208</v>
       </c>
       <c r="S19">
-        <v>2.999522549506407E-05</v>
+        <v>5.347017725239349E-06</v>
       </c>
       <c r="T19">
-        <v>2.999522549506407E-05</v>
+        <v>5.34701772523935E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H20">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I20">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J20">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>0.1468374058671451</v>
+        <v>0.7727505120546667</v>
       </c>
       <c r="R20">
-        <v>0.1468374058671451</v>
+        <v>6.954754608492</v>
       </c>
       <c r="S20">
-        <v>5.611366439257432E-05</v>
+        <v>0.0002341193795385019</v>
       </c>
       <c r="T20">
-        <v>5.611366439257432E-05</v>
+        <v>0.0002341193795385019</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H21">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I21">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J21">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>0.8589510915405262</v>
+        <v>0.9116463052906666</v>
       </c>
       <c r="R21">
-        <v>0.8589510915405262</v>
+        <v>8.204816747616</v>
       </c>
       <c r="S21">
-        <v>0.0003282466956951669</v>
+        <v>0.000276200486474889</v>
       </c>
       <c r="T21">
-        <v>0.0003282466956951669</v>
+        <v>0.000276200486474889</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H22">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I22">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J22">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>0.07129972146837187</v>
+        <v>0.11668490542</v>
       </c>
       <c r="R22">
-        <v>0.07129972146837187</v>
+        <v>1.05016414878</v>
       </c>
       <c r="S22">
-        <v>2.72470670408067E-05</v>
+        <v>3.535189848765393E-05</v>
       </c>
       <c r="T22">
-        <v>2.72470670408067E-05</v>
+        <v>3.535189848765393E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H23">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I23">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J23">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>0.140892137986879</v>
+        <v>0.1737952050226667</v>
       </c>
       <c r="R23">
-        <v>0.140892137986879</v>
+        <v>1.564156845204</v>
       </c>
       <c r="S23">
-        <v>5.384169040483549E-05</v>
+        <v>5.265454364887563E-05</v>
       </c>
       <c r="T23">
-        <v>5.384169040483549E-05</v>
+        <v>5.265454364887564E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H24">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I24">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J24">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>3.834204540680656</v>
+        <v>4.170417906952</v>
       </c>
       <c r="R24">
-        <v>3.834204540680656</v>
+        <v>37.533761162568</v>
       </c>
       <c r="S24">
-        <v>0.00146523473046713</v>
+        <v>0.001263506963192783</v>
       </c>
       <c r="T24">
-        <v>0.00146523473046713</v>
+        <v>0.001263506963192783</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H25">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I25">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J25">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>0.07553953070878018</v>
+        <v>0.09679551544533334</v>
       </c>
       <c r="R25">
-        <v>0.07553953070878018</v>
+        <v>0.8711596390080001</v>
       </c>
       <c r="S25">
-        <v>2.886730291599006E-05</v>
+        <v>2.932603170707153E-05</v>
       </c>
       <c r="T25">
-        <v>2.886730291599006E-05</v>
+        <v>2.932603170707153E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H26">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I26">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J26">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>12.56101663628907</v>
+        <v>0.7331901460467779</v>
       </c>
       <c r="R26">
-        <v>12.56101663628907</v>
+        <v>6.598711314421002</v>
       </c>
       <c r="S26">
-        <v>0.004800171099426763</v>
+        <v>0.000222133818610879</v>
       </c>
       <c r="T26">
-        <v>0.004800171099426763</v>
+        <v>0.000222133818610879</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H27">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I27">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J27">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>73.47786408295106</v>
+        <v>0.8649752763564446</v>
       </c>
       <c r="R27">
-        <v>73.47786408295106</v>
+        <v>7.784777487208001</v>
       </c>
       <c r="S27">
-        <v>0.02807944052869198</v>
+        <v>0.0002620606157584649</v>
       </c>
       <c r="T27">
-        <v>0.02807944052869198</v>
+        <v>0.0002620606157584649</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H28">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I28">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J28">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>6.099242779713165</v>
+        <v>0.1107113117516667</v>
       </c>
       <c r="R28">
-        <v>6.099242779713165</v>
+        <v>0.996401805765</v>
       </c>
       <c r="S28">
-        <v>0.002330815233138325</v>
+        <v>3.354208533136528E-05</v>
       </c>
       <c r="T28">
-        <v>0.002330815233138325</v>
+        <v>3.354208533136529E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H29">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I29">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J29">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>12.05243635791787</v>
+        <v>0.1648978936474445</v>
       </c>
       <c r="R29">
-        <v>12.05243635791787</v>
+        <v>1.484081042827</v>
       </c>
       <c r="S29">
-        <v>0.004605818012836388</v>
+        <v>4.995893492881241E-05</v>
       </c>
       <c r="T29">
-        <v>0.004605818012836388</v>
+        <v>4.995893492881243E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.7801012595844</v>
+        <v>0.3504243333333334</v>
       </c>
       <c r="H30">
-        <v>29.7801012595844</v>
+        <v>1.051273</v>
       </c>
       <c r="I30">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="J30">
-        <v>0.1676272776746799</v>
+        <v>0.001794342862244129</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>327.9920857904571</v>
+        <v>3.956916581192667</v>
       </c>
       <c r="R30">
-        <v>327.9920857904571</v>
+        <v>35.612249230734</v>
       </c>
       <c r="S30">
-        <v>0.1253416165777159</v>
+        <v>0.00119882269946513</v>
       </c>
       <c r="T30">
-        <v>0.1253416165777159</v>
+        <v>0.001198822699465131</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.051273</v>
+      </c>
+      <c r="I31">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J31">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q31">
+        <v>0.09184014374488891</v>
+      </c>
+      <c r="R31">
+        <v>0.8265612937040001</v>
+      </c>
+      <c r="S31">
+        <v>2.782470814947726E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.782470814947727E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H32">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I32">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J32">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N32">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P32">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q32">
+        <v>67.93851539383212</v>
+      </c>
+      <c r="R32">
+        <v>611.446638544489</v>
+      </c>
+      <c r="S32">
+        <v>0.02058325788549683</v>
+      </c>
+      <c r="T32">
+        <v>0.02058325788549683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H33">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I33">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J33">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N33">
+        <v>7.405096</v>
+      </c>
+      <c r="O33">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P33">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q33">
+        <v>80.14992624338578</v>
+      </c>
+      <c r="R33">
+        <v>721.3493361904719</v>
+      </c>
+      <c r="S33">
+        <v>0.02428293570749611</v>
+      </c>
+      <c r="T33">
+        <v>0.02428293570749611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H34">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I34">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J34">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.315935</v>
+      </c>
+      <c r="N34">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P34">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q34">
+        <v>10.25867873193167</v>
+      </c>
+      <c r="R34">
+        <v>92.32810858738499</v>
+      </c>
+      <c r="S34">
+        <v>0.003108060702824561</v>
+      </c>
+      <c r="T34">
+        <v>0.003108060702824561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H35">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I35">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J35">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N35">
+        <v>1.411699</v>
+      </c>
+      <c r="O35">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P35">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q35">
+        <v>15.27968992270478</v>
+      </c>
+      <c r="R35">
+        <v>137.517209304343</v>
+      </c>
+      <c r="S35">
+        <v>0.004629270985188652</v>
+      </c>
+      <c r="T35">
+        <v>0.004629270985188652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>29.7801012595844</v>
-      </c>
-      <c r="H31">
-        <v>29.7801012595844</v>
-      </c>
-      <c r="I31">
-        <v>0.1676272776746799</v>
-      </c>
-      <c r="J31">
-        <v>0.1676272776746799</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="N31">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="O31">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="P31">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="Q31">
-        <v>6.461931796785871</v>
-      </c>
-      <c r="R31">
-        <v>6.461931796785871</v>
-      </c>
-      <c r="S31">
-        <v>0.002469416222870494</v>
-      </c>
-      <c r="T31">
-        <v>0.002469416222870494</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H36">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I36">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J36">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.291786</v>
+      </c>
+      <c r="N36">
+        <v>33.875358</v>
+      </c>
+      <c r="O36">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P36">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q36">
+        <v>366.6539157856006</v>
+      </c>
+      <c r="R36">
+        <v>3299.885242070406</v>
+      </c>
+      <c r="S36">
+        <v>0.1110847368329072</v>
+      </c>
+      <c r="T36">
+        <v>0.1110847368329072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H37">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I37">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J37">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P37">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q37">
+        <v>8.510047568459557</v>
+      </c>
+      <c r="R37">
+        <v>76.590428116136</v>
+      </c>
+      <c r="S37">
+        <v>0.002578279827047131</v>
+      </c>
+      <c r="T37">
+        <v>0.002578279827047131</v>
       </c>
     </row>
   </sheetData>
